--- a/extension_components/etl/images/ETL.xlsx
+++ b/extension_components/etl/images/ETL.xlsx
@@ -117,6 +117,58 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="3267076"/>
+          <a:ext cx="5229226" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1845,6 +1897,1297 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="角丸四角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="3467100"/>
+          <a:ext cx="1933574" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410949" y="4048124"/>
+          <a:ext cx="1333501" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Extract</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>フェーズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="4495800"/>
+          <a:ext cx="1333500" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Transform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>フェーズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11420475" y="4972051"/>
+          <a:ext cx="1323975" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Load</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>フェーズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028700" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="3752850"/>
+          <a:ext cx="1028700" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ステップ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>で関連付ける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="955774" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="3324225"/>
+          <a:ext cx="955774" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>JOB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>毎に作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="3438525"/>
+          <a:ext cx="1933574" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1509003" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="3609975"/>
+          <a:ext cx="1509003" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JOB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>設定ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>               (json)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1169103" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553450" y="3552825"/>
+          <a:ext cx="1169103" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JOB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定義ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         (xml)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1509003" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13801725" y="3810000"/>
+          <a:ext cx="1509003" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JOB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>設定ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="3752850"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="角丸四角形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="4010025"/>
+          <a:ext cx="1333501" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Extract</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>ステップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="角丸四角形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="4457700"/>
+          <a:ext cx="1323975" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Transform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>ステップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="角丸四角形 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="4943475"/>
+          <a:ext cx="1323975" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>Load</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" u="sng"/>
+            <a:t>ステップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1169103" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925301" y="6867525"/>
+          <a:ext cx="1169103" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JOB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定義ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="角丸四角形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554075" y="4114801"/>
+          <a:ext cx="1714500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ETL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>環境</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定ファイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(config)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="4229100"/>
+          <a:ext cx="1571624" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839324" y="4695826"/>
+          <a:ext cx="1571624" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848849" y="5153026"/>
+          <a:ext cx="1571624" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4391025"/>
+          <a:ext cx="400050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2139,7 +3482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="BZ28" sqref="BZ28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/extension_components/etl/images/ETL.xlsx
+++ b/extension_components/etl/images/ETL.xlsx
@@ -3182,6 +3182,1309 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="フローチャート : 磁気ディスク 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800224" y="8782051"/>
+          <a:ext cx="1000125" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" i="1" u="sng" baseline="0"/>
+            <a:t>ワークテーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="右矢印 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="8982076"/>
+          <a:ext cx="400050" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="メモ 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="8915401"/>
+          <a:ext cx="400050" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48974</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676274" y="9048751"/>
+          <a:ext cx="172800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="9163051"/>
+          <a:ext cx="171450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="フローチャート : 磁気ディスク 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600449" y="9982200"/>
+          <a:ext cx="1000125" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" i="1" u="sng" baseline="0"/>
+            <a:t>エラーテーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34411</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101086</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="右矢印 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2700000">
+          <a:off x="2905463" y="9709664"/>
+          <a:ext cx="525345" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="7258051"/>
+          <a:ext cx="2324100" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①ワークテーブルへのロード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" u="sng" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルの情報をワークテーブルにロードする。この時点では、バリデーションを行っていないため不正形式のデータがロードされる可能性がある。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1400175" y="8439150"/>
+          <a:ext cx="38100" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="10325100"/>
+          <a:ext cx="3352800" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" u="sng" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②ワークテーブルにロードしたファイルの内容のバリデーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" u="sng" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バリデーションエラーが発生したレコードをワークテーブルに移動する。これにより、本テーブルのロード時にはエラーの無いレコードのみを対象にできる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラーテーブルは、ワークテーブルと全く同じレイアウトのテーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1752600" y="9829801"/>
+          <a:ext cx="1266825" cy="514349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="フローチャート : 磁気ディスク 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="8782051"/>
+          <a:ext cx="1000125" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" i="1" u="sng" baseline="0"/>
+            <a:t>本テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="右矢印 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000374" y="9010651"/>
+          <a:ext cx="400051" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="7267575"/>
+          <a:ext cx="2857500" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③ワークテーブルから正常なデータを本テーブルにロード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ワークテーブルから本テーブルに必要な情報を取得し、編集及び型変換を行い本テーブルにロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3200400" y="8267700"/>
+          <a:ext cx="400050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="フローチャート : 磁気ディスク 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="8096250"/>
+          <a:ext cx="1000125" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" i="1" u="sng" baseline="0"/>
+            <a:t>本テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="右矢印 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801101" y="8343900"/>
+          <a:ext cx="400050" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="メモ 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401176" y="8267700"/>
+          <a:ext cx="400049" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>96599</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線コネクタ 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524999" y="8401050"/>
+          <a:ext cx="172800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="8515350"/>
+          <a:ext cx="171450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="9296401"/>
+          <a:ext cx="2857500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①本テーブルからデータを取得しファイルに出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>本テーブルからファイル出力に必要な情報を取得し、編集を行いファイル出力する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="133" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9001126" y="8610601"/>
+          <a:ext cx="28574" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3482,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="BZ28" sqref="BZ28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AX62" sqref="AX62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
